--- a/dados/analises/2024/excel/01-visao-geral.xlsx
+++ b/dados/analises/2024/excel/01-visao-geral.xlsx
@@ -23,7 +23,7 @@
     <t>campanha_origem</t>
   </si>
   <si>
-    <t>qty</t>
+    <t>qtd</t>
   </si>
   <si>
     <t>tn_qty</t>
@@ -74,12 +74,12 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Apoia.se</t>
+  </si>
+  <si>
     <t>Catarse</t>
   </si>
   <si>
-    <t>Apoia.se</t>
-  </si>
-  <si>
     <t>uf</t>
   </si>
   <si>
@@ -170,15 +170,15 @@
     <t>Coletivo</t>
   </si>
   <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
     <t>Feminino</t>
   </si>
   <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Outros</t>
-  </si>
-  <si>
     <t>autor_nome</t>
   </si>
   <si>
@@ -9773,6 +9773,30 @@
     <t>saloes_humor</t>
   </si>
   <si>
+    <t>nenhuma</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>religiosidade</t>
+  </si>
+  <si>
+    <t>folclore</t>
+  </si>
+  <si>
+    <t>ccxp</t>
+  </si>
+  <si>
+    <t>terror</t>
+  </si>
+  <si>
+    <t>politica</t>
+  </si>
+  <si>
+    <t>hqmix</t>
+  </si>
+  <si>
     <t>disputa</t>
   </si>
   <si>
@@ -9786,30 +9810,6 @@
   </si>
   <si>
     <t>angelo_agostini</t>
-  </si>
-  <si>
-    <t>nenhuma</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>religiosidade</t>
-  </si>
-  <si>
-    <t>folclore</t>
-  </si>
-  <si>
-    <t>ccxp</t>
-  </si>
-  <si>
-    <t>terror</t>
-  </si>
-  <si>
-    <t>politica</t>
-  </si>
-  <si>
-    <t>hqmix</t>
   </si>
 </sst>
 </file>
@@ -10284,52 +10284,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>3300</v>
+        <v>745</v>
       </c>
       <c r="C3">
-        <v>1479</v>
-      </c>
-      <c r="D3">
-        <v>27805556.579</v>
-      </c>
-      <c r="E3">
-        <v>30092.59370021645</v>
-      </c>
-      <c r="F3">
-        <v>711694.622</v>
-      </c>
-      <c r="G3">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1750</v>
+        <v>12</v>
       </c>
       <c r="I3">
-        <v>22712406.533</v>
+        <v>1138.45</v>
       </c>
       <c r="J3">
-        <v>13632.89707863145</v>
+        <v>569.225</v>
       </c>
       <c r="K3">
-        <v>742785.009</v>
+        <v>961.052</v>
       </c>
       <c r="L3">
-        <v>95.19999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="M3">
-        <v>71</v>
+        <v>733</v>
       </c>
       <c r="N3">
-        <v>3862.125</v>
+        <v>42839.386</v>
       </c>
       <c r="O3">
-        <v>241.3828125</v>
+        <v>269.4301006289308</v>
       </c>
       <c r="P3">
-        <v>564.1180000000001</v>
+        <v>3693.439</v>
       </c>
       <c r="Q3">
-        <v>22.5</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -10337,40 +10325,52 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>745</v>
+        <v>3300</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1479</v>
+      </c>
+      <c r="D4">
+        <v>27805556.579</v>
+      </c>
+      <c r="E4">
+        <v>30092.59370021645</v>
+      </c>
+      <c r="F4">
+        <v>711694.622</v>
+      </c>
+      <c r="G4">
+        <v>62.5</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>1750</v>
       </c>
       <c r="I4">
-        <v>1138.45</v>
+        <v>22712406.533</v>
       </c>
       <c r="J4">
-        <v>569.225</v>
+        <v>13632.89707863145</v>
       </c>
       <c r="K4">
-        <v>961.052</v>
+        <v>742785.009</v>
       </c>
       <c r="L4">
-        <v>16.7</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="M4">
-        <v>733</v>
+        <v>71</v>
       </c>
       <c r="N4">
-        <v>42839.386</v>
+        <v>3862.125</v>
       </c>
       <c r="O4">
-        <v>269.4301006289308</v>
+        <v>241.3828125</v>
       </c>
       <c r="P4">
-        <v>3693.439</v>
+        <v>564.1180000000001</v>
       </c>
       <c r="Q4">
-        <v>21.7</v>
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
@@ -12021,52 +12021,52 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>588</v>
+        <v>691</v>
       </c>
       <c r="C5">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="D5">
-        <v>4503954.413</v>
+        <v>5415128.861</v>
       </c>
       <c r="E5">
-        <v>28687.60772611465</v>
+        <v>49228.44419090909</v>
       </c>
       <c r="F5">
-        <v>563181.047</v>
+        <v>277204.499</v>
       </c>
       <c r="G5">
-        <v>67.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="H5">
-        <v>213</v>
+        <v>524</v>
       </c>
       <c r="I5">
-        <v>1336759.451</v>
+        <v>11036472.204</v>
       </c>
       <c r="J5">
-        <v>6457.775125603865</v>
+        <v>21061.96985496183</v>
       </c>
       <c r="K5">
-        <v>31154.887</v>
+        <v>742785.009</v>
       </c>
       <c r="L5">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="N5">
-        <v>9231.977000000001</v>
+        <v>1110.092</v>
       </c>
       <c r="O5">
-        <v>236.717358974359</v>
+        <v>370.0306666666667</v>
       </c>
       <c r="P5">
-        <v>1010.602</v>
+        <v>564.1180000000001</v>
       </c>
       <c r="Q5">
-        <v>27.5</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -12074,52 +12074,52 @@
         <v>51</v>
       </c>
       <c r="B6">
-        <v>691</v>
+        <v>168</v>
       </c>
       <c r="C6">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>5415128.861</v>
+        <v>2415.539</v>
       </c>
       <c r="E6">
-        <v>49228.44419090909</v>
+        <v>1207.7695</v>
       </c>
       <c r="F6">
-        <v>277204.499</v>
+        <v>1802.721</v>
       </c>
       <c r="G6">
-        <v>73.3</v>
+        <v>28.6</v>
       </c>
       <c r="H6">
-        <v>524</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>11036472.204</v>
+        <v>11763.397</v>
       </c>
       <c r="J6">
-        <v>21061.96985496183</v>
+        <v>1680.485285714286</v>
       </c>
       <c r="K6">
-        <v>742785.009</v>
+        <v>5778.905</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>77.8</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="N6">
-        <v>1110.092</v>
+        <v>3719.513</v>
       </c>
       <c r="O6">
-        <v>370.0306666666667</v>
+        <v>128.2590689655172</v>
       </c>
       <c r="P6">
-        <v>564.1180000000001</v>
+        <v>551.826</v>
       </c>
       <c r="Q6">
-        <v>17.6</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -12127,52 +12127,52 @@
         <v>52</v>
       </c>
       <c r="B7">
-        <v>168</v>
+        <v>588</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>233</v>
       </c>
       <c r="D7">
-        <v>2415.539</v>
+        <v>4503954.413</v>
       </c>
       <c r="E7">
-        <v>1207.7695</v>
+        <v>28687.60772611465</v>
       </c>
       <c r="F7">
-        <v>1802.721</v>
+        <v>563181.047</v>
       </c>
       <c r="G7">
-        <v>28.6</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>213</v>
       </c>
       <c r="I7">
-        <v>11763.397</v>
+        <v>1336759.451</v>
       </c>
       <c r="J7">
-        <v>1680.485285714286</v>
+        <v>6457.775125603865</v>
       </c>
       <c r="K7">
-        <v>5778.905</v>
+        <v>31154.887</v>
       </c>
       <c r="L7">
-        <v>77.8</v>
+        <v>97.2</v>
       </c>
       <c r="M7">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="N7">
-        <v>3719.513</v>
+        <v>9231.977000000001</v>
       </c>
       <c r="O7">
-        <v>128.2590689655172</v>
+        <v>236.717358974359</v>
       </c>
       <c r="P7">
-        <v>551.826</v>
+        <v>1010.602</v>
       </c>
       <c r="Q7">
-        <v>19.1</v>
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>
@@ -80304,52 +80304,52 @@
         <v>3251</v>
       </c>
       <c r="B12">
-        <v>1198</v>
+        <v>781</v>
       </c>
       <c r="C12">
-        <v>443</v>
+        <v>199</v>
       </c>
       <c r="D12">
-        <v>7893061.224</v>
+        <v>2647076.802</v>
       </c>
       <c r="E12">
-        <v>28189.50437142857</v>
+        <v>24285.10827522936</v>
       </c>
       <c r="F12">
-        <v>170955.305</v>
+        <v>111395.431</v>
       </c>
       <c r="G12">
-        <v>63.2</v>
+        <v>54.8</v>
       </c>
       <c r="H12">
-        <v>686</v>
+        <v>187</v>
       </c>
       <c r="I12">
-        <v>10160354.452</v>
+        <v>739260.1090000001</v>
       </c>
       <c r="J12">
-        <v>15278.72849924812</v>
+        <v>4831.765418300654</v>
       </c>
       <c r="K12">
-        <v>572341.679</v>
+        <v>57696.077</v>
       </c>
       <c r="L12">
-        <v>96.89999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="M12">
-        <v>69</v>
+        <v>395</v>
       </c>
       <c r="N12">
-        <v>8959.984</v>
+        <v>14562.521</v>
       </c>
       <c r="O12">
-        <v>426.6659047619048</v>
+        <v>227.539390625</v>
       </c>
       <c r="P12">
-        <v>3693.439</v>
+        <v>3093.757</v>
       </c>
       <c r="Q12">
-        <v>30.4</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -80357,52 +80357,52 @@
         <v>3252</v>
       </c>
       <c r="B13">
-        <v>759</v>
+        <v>688</v>
       </c>
       <c r="C13">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="D13">
-        <v>5859658.157</v>
+        <v>7390931.443</v>
       </c>
       <c r="E13">
-        <v>28171.43344711538</v>
+        <v>33903.35524311927</v>
       </c>
       <c r="F13">
-        <v>277204.499</v>
+        <v>711694.622</v>
       </c>
       <c r="G13">
-        <v>66</v>
+        <v>73.2</v>
       </c>
       <c r="H13">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="I13">
-        <v>7760959.765</v>
+        <v>7109735.103</v>
       </c>
       <c r="J13">
-        <v>19747.98922391858</v>
+        <v>21414.86476807229</v>
       </c>
       <c r="K13">
         <v>742785.009</v>
       </c>
       <c r="L13">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N13">
-        <v>2019.892</v>
+        <v>11461.154</v>
       </c>
       <c r="O13">
-        <v>155.3763076923077</v>
+        <v>573.0577000000001</v>
       </c>
       <c r="P13">
-        <v>564.1180000000001</v>
+        <v>3693.439</v>
       </c>
       <c r="Q13">
-        <v>30.2</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -80410,52 +80410,52 @@
         <v>3253</v>
       </c>
       <c r="B14">
-        <v>766</v>
+        <v>971</v>
       </c>
       <c r="C14">
-        <v>303</v>
+        <v>394</v>
       </c>
       <c r="D14">
-        <v>4152413.056</v>
+        <v>7572215.988</v>
       </c>
       <c r="E14">
-        <v>23459.96076836158</v>
+        <v>32359.89738461539</v>
       </c>
       <c r="F14">
-        <v>168839.343</v>
+        <v>711694.622</v>
       </c>
       <c r="G14">
-        <v>58.4</v>
+        <v>59.4</v>
       </c>
       <c r="H14">
-        <v>414</v>
+        <v>515</v>
       </c>
       <c r="I14">
-        <v>6708283.468</v>
+        <v>8304392.426</v>
       </c>
       <c r="J14">
-        <v>16687.27230845771</v>
+        <v>16608.784852</v>
       </c>
       <c r="K14">
-        <v>213258.958</v>
+        <v>742785.009</v>
       </c>
       <c r="L14">
         <v>97.09999999999999</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="N14">
-        <v>7064.057</v>
+        <v>7054.129</v>
       </c>
       <c r="O14">
-        <v>543.389</v>
+        <v>470.2752666666667</v>
       </c>
       <c r="P14">
         <v>3693.439</v>
       </c>
       <c r="Q14">
-        <v>26.5</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -80463,52 +80463,52 @@
         <v>3254</v>
       </c>
       <c r="B15">
-        <v>351</v>
+        <v>595</v>
       </c>
       <c r="C15">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="D15">
-        <v>4615713.184</v>
+        <v>5031695.894</v>
       </c>
       <c r="E15">
-        <v>41583.00165765766</v>
+        <v>32049.01843312102</v>
       </c>
       <c r="F15">
-        <v>277204.499</v>
+        <v>415470.057</v>
       </c>
       <c r="G15">
-        <v>72.09999999999999</v>
+        <v>68.89999999999999</v>
       </c>
       <c r="H15">
-        <v>122</v>
+        <v>339</v>
       </c>
       <c r="I15">
-        <v>2124189.241</v>
+        <v>6310702.444</v>
       </c>
       <c r="J15">
-        <v>18155.4635982906</v>
+        <v>18951.05839039039</v>
       </c>
       <c r="K15">
-        <v>140163.744</v>
+        <v>742785.009</v>
       </c>
       <c r="L15">
-        <v>95.89999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="M15">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N15">
-        <v>7781.658</v>
+        <v>2231.412</v>
       </c>
       <c r="O15">
-        <v>486.353625</v>
+        <v>202.8556363636363</v>
       </c>
       <c r="P15">
-        <v>3693.439</v>
+        <v>1263.468</v>
       </c>
       <c r="Q15">
-        <v>21.3</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -80516,52 +80516,52 @@
         <v>3255</v>
       </c>
       <c r="B16">
-        <v>204</v>
+        <v>371</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="D16">
-        <v>3367877.077</v>
+        <v>3407130.665</v>
       </c>
       <c r="E16">
-        <v>47434.88840845071</v>
+        <v>24689.35264492754</v>
       </c>
       <c r="F16">
-        <v>711694.622</v>
+        <v>182848.032</v>
       </c>
       <c r="G16">
-        <v>91</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="H16">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="I16">
-        <v>2824377.494</v>
+        <v>2737899.998</v>
       </c>
       <c r="J16">
-        <v>22777.23785483871</v>
+        <v>13827.77776767677</v>
       </c>
       <c r="K16">
-        <v>463383.745</v>
+        <v>127554.176</v>
       </c>
       <c r="L16">
         <v>100</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>1074.214</v>
+        <v>1128.283</v>
       </c>
       <c r="O16">
-        <v>537.107</v>
+        <v>376.0943333333333</v>
       </c>
       <c r="P16">
         <v>914.181</v>
       </c>
       <c r="Q16">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -80569,52 +80569,52 @@
         <v>3256</v>
       </c>
       <c r="B17">
-        <v>781</v>
+        <v>1430</v>
       </c>
       <c r="C17">
-        <v>199</v>
+        <v>552</v>
       </c>
       <c r="D17">
-        <v>2647076.802</v>
+        <v>10872510.863</v>
       </c>
       <c r="E17">
-        <v>24285.10827522936</v>
+        <v>29544.86647554348</v>
       </c>
       <c r="F17">
-        <v>111395.431</v>
+        <v>711694.622</v>
       </c>
       <c r="G17">
-        <v>54.8</v>
+        <v>66.7</v>
       </c>
       <c r="H17">
-        <v>187</v>
+        <v>801</v>
       </c>
       <c r="I17">
-        <v>739260.1090000001</v>
+        <v>12617039.857</v>
       </c>
       <c r="J17">
-        <v>4831.765418300654</v>
+        <v>15991.17852598226</v>
       </c>
       <c r="K17">
-        <v>57696.077</v>
+        <v>742785.009</v>
       </c>
       <c r="L17">
-        <v>81.8</v>
+        <v>98.5</v>
       </c>
       <c r="M17">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="N17">
-        <v>14562.521</v>
+        <v>8735.962</v>
       </c>
       <c r="O17">
-        <v>227.539390625</v>
+        <v>311.9986428571428</v>
       </c>
       <c r="P17">
-        <v>3093.757</v>
+        <v>3693.439</v>
       </c>
       <c r="Q17">
-        <v>16.2</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -80622,52 +80622,52 @@
         <v>3257</v>
       </c>
       <c r="B18">
-        <v>688</v>
+        <v>757</v>
       </c>
       <c r="C18">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="D18">
-        <v>7390931.443</v>
+        <v>5563003.099</v>
       </c>
       <c r="E18">
-        <v>33903.35524311927</v>
+        <v>31971.28217816092</v>
       </c>
       <c r="F18">
-        <v>711694.622</v>
+        <v>225548.457</v>
       </c>
       <c r="G18">
-        <v>73.2</v>
+        <v>66.2</v>
       </c>
       <c r="H18">
-        <v>337</v>
+        <v>431</v>
       </c>
       <c r="I18">
-        <v>7109735.103</v>
+        <v>6683382.161</v>
       </c>
       <c r="J18">
-        <v>21414.86476807229</v>
+        <v>15799.95782742317</v>
       </c>
       <c r="K18">
-        <v>742785.009</v>
+        <v>164489.506</v>
       </c>
       <c r="L18">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="M18">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="N18">
-        <v>11461.154</v>
+        <v>9818.359</v>
       </c>
       <c r="O18">
-        <v>573.0577000000001</v>
+        <v>426.8851739130435</v>
       </c>
       <c r="P18">
         <v>3693.439</v>
       </c>
       <c r="Q18">
-        <v>37.7</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -80675,52 +80675,52 @@
         <v>3258</v>
       </c>
       <c r="B19">
-        <v>971</v>
+        <v>341</v>
       </c>
       <c r="C19">
-        <v>394</v>
+        <v>135</v>
       </c>
       <c r="D19">
-        <v>7572215.988</v>
+        <v>4299929.992</v>
       </c>
       <c r="E19">
-        <v>32359.89738461539</v>
+        <v>36133.8654789916</v>
       </c>
       <c r="F19">
         <v>711694.622</v>
       </c>
       <c r="G19">
-        <v>59.4</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="H19">
-        <v>515</v>
+        <v>200</v>
       </c>
       <c r="I19">
-        <v>8304392.426</v>
+        <v>3373780.419</v>
       </c>
       <c r="J19">
-        <v>16608.784852</v>
+        <v>16868.902095</v>
       </c>
       <c r="K19">
-        <v>742785.009</v>
+        <v>463383.745</v>
       </c>
       <c r="L19">
-        <v>97.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="M19">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="N19">
-        <v>7054.129</v>
+        <v>1086.553</v>
       </c>
       <c r="O19">
-        <v>470.2752666666667</v>
+        <v>271.63825</v>
       </c>
       <c r="P19">
-        <v>3693.439</v>
+        <v>914.181</v>
       </c>
       <c r="Q19">
-        <v>24.2</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -80728,52 +80728,52 @@
         <v>3259</v>
       </c>
       <c r="B20">
-        <v>595</v>
+        <v>1198</v>
       </c>
       <c r="C20">
-        <v>228</v>
+        <v>443</v>
       </c>
       <c r="D20">
-        <v>5031695.894</v>
+        <v>7893061.224</v>
       </c>
       <c r="E20">
-        <v>32049.01843312102</v>
+        <v>28189.50437142857</v>
       </c>
       <c r="F20">
-        <v>415470.057</v>
+        <v>170955.305</v>
       </c>
       <c r="G20">
-        <v>68.89999999999999</v>
+        <v>63.2</v>
       </c>
       <c r="H20">
-        <v>339</v>
+        <v>686</v>
       </c>
       <c r="I20">
-        <v>6310702.444</v>
+        <v>10160354.452</v>
       </c>
       <c r="J20">
-        <v>18951.05839039039</v>
+        <v>15278.72849924812</v>
       </c>
       <c r="K20">
-        <v>742785.009</v>
+        <v>572341.679</v>
       </c>
       <c r="L20">
-        <v>98.2</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="N20">
-        <v>2231.412</v>
+        <v>8959.984</v>
       </c>
       <c r="O20">
-        <v>202.8556363636363</v>
+        <v>426.6659047619048</v>
       </c>
       <c r="P20">
-        <v>1263.468</v>
+        <v>3693.439</v>
       </c>
       <c r="Q20">
-        <v>39.3</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -80781,52 +80781,52 @@
         <v>3260</v>
       </c>
       <c r="B21">
-        <v>371</v>
+        <v>759</v>
       </c>
       <c r="C21">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c r="D21">
-        <v>3407130.665</v>
+        <v>5859658.157</v>
       </c>
       <c r="E21">
-        <v>24689.35264492754</v>
+        <v>28171.43344711538</v>
       </c>
       <c r="F21">
-        <v>182848.032</v>
+        <v>277204.499</v>
       </c>
       <c r="G21">
-        <v>82.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="H21">
-        <v>198</v>
+        <v>401</v>
       </c>
       <c r="I21">
-        <v>2737899.998</v>
+        <v>7760959.765</v>
       </c>
       <c r="J21">
-        <v>13827.77776767677</v>
+        <v>19747.98922391858</v>
       </c>
       <c r="K21">
-        <v>127554.176</v>
+        <v>742785.009</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="N21">
-        <v>1128.283</v>
+        <v>2019.892</v>
       </c>
       <c r="O21">
-        <v>376.0943333333333</v>
+        <v>155.3763076923077</v>
       </c>
       <c r="P21">
-        <v>914.181</v>
+        <v>564.1180000000001</v>
       </c>
       <c r="Q21">
-        <v>60</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -80834,52 +80834,52 @@
         <v>3261</v>
       </c>
       <c r="B22">
-        <v>1430</v>
+        <v>766</v>
       </c>
       <c r="C22">
-        <v>552</v>
+        <v>303</v>
       </c>
       <c r="D22">
-        <v>10872510.863</v>
+        <v>4152413.056</v>
       </c>
       <c r="E22">
-        <v>29544.86647554348</v>
+        <v>23459.96076836158</v>
       </c>
       <c r="F22">
-        <v>711694.622</v>
+        <v>168839.343</v>
       </c>
       <c r="G22">
-        <v>66.7</v>
+        <v>58.4</v>
       </c>
       <c r="H22">
-        <v>801</v>
+        <v>414</v>
       </c>
       <c r="I22">
-        <v>12617039.857</v>
+        <v>6708283.468</v>
       </c>
       <c r="J22">
-        <v>15991.17852598226</v>
+        <v>16687.27230845771</v>
       </c>
       <c r="K22">
-        <v>742785.009</v>
+        <v>213258.958</v>
       </c>
       <c r="L22">
-        <v>98.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="M22">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="N22">
-        <v>8735.962</v>
+        <v>7064.057</v>
       </c>
       <c r="O22">
-        <v>311.9986428571428</v>
+        <v>543.389</v>
       </c>
       <c r="P22">
         <v>3693.439</v>
       </c>
       <c r="Q22">
-        <v>36.4</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -80887,52 +80887,52 @@
         <v>3262</v>
       </c>
       <c r="B23">
-        <v>757</v>
+        <v>351</v>
       </c>
       <c r="C23">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="D23">
-        <v>5563003.099</v>
+        <v>4615713.184</v>
       </c>
       <c r="E23">
-        <v>31971.28217816092</v>
+        <v>41583.00165765766</v>
       </c>
       <c r="F23">
-        <v>225548.457</v>
+        <v>277204.499</v>
       </c>
       <c r="G23">
-        <v>66.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="H23">
-        <v>431</v>
+        <v>122</v>
       </c>
       <c r="I23">
-        <v>6683382.161</v>
+        <v>2124189.241</v>
       </c>
       <c r="J23">
-        <v>15799.95782742317</v>
+        <v>18155.4635982906</v>
       </c>
       <c r="K23">
-        <v>164489.506</v>
+        <v>140163.744</v>
       </c>
       <c r="L23">
-        <v>98.09999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="M23">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="N23">
-        <v>9818.359</v>
+        <v>7781.658</v>
       </c>
       <c r="O23">
-        <v>426.8851739130435</v>
+        <v>486.353625</v>
       </c>
       <c r="P23">
         <v>3693.439</v>
       </c>
       <c r="Q23">
-        <v>36.5</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -80940,31 +80940,31 @@
         <v>3263</v>
       </c>
       <c r="B24">
-        <v>341</v>
+        <v>204</v>
       </c>
       <c r="C24">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="D24">
-        <v>4299929.992</v>
+        <v>3367877.077</v>
       </c>
       <c r="E24">
-        <v>36133.8654789916</v>
+        <v>47434.88840845071</v>
       </c>
       <c r="F24">
         <v>711694.622</v>
       </c>
       <c r="G24">
-        <v>88.09999999999999</v>
+        <v>91</v>
       </c>
       <c r="H24">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="I24">
-        <v>3373780.419</v>
+        <v>2824377.494</v>
       </c>
       <c r="J24">
-        <v>16868.902095</v>
+        <v>22777.23785483871</v>
       </c>
       <c r="K24">
         <v>463383.745</v>
@@ -80973,19 +80973,19 @@
         <v>100</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>1086.553</v>
+        <v>1074.214</v>
       </c>
       <c r="O24">
-        <v>271.63825</v>
+        <v>537.107</v>
       </c>
       <c r="P24">
         <v>914.181</v>
       </c>
       <c r="Q24">
-        <v>66.7</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
